--- a/outputs-HGR-r202/test-g__Bacteroides_F_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Bacteroides_F_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Row</t>
   </si>
@@ -91,7 +91,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -101,14 +101,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -127,18 +131,18 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -149,8 +153,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
+      <c r="A3" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -160,8 +164,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
+      <c r="A4" s="3" t="s">
+        <v>4</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -171,8 +175,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
+      <c r="A5" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -182,8 +186,8 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
+      <c r="A6" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -193,8 +197,8 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
+      <c r="A7" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -204,8 +208,8 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
+      <c r="A8" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B8">
         <v>1</v>

--- a/outputs-HGR-r202/test-g__Bacteroides_F_split_pruned.xlsx
+++ b/outputs-HGR-r202/test-g__Bacteroides_F_split_pruned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="19">
   <si>
     <t>Row</t>
   </si>
@@ -91,7 +91,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -103,16 +103,28 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -131,88 +143,88 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>-0.3464487862609742</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>-0.27148925610081465</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>-0.4381589717418457</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="9" t="s">
         <v>9</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>-0.2360612227466663</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>-0.23765333749391226</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>-0.29300382725716512</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="9" t="s">
         <v>16</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>-0.31310196576098104</v>
       </c>
       <c r="C8">
         <v>1</v>
